--- a/public/assets/update.xlsx
+++ b/public/assets/update.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5FC99E-E55F-47F8-996F-E7D616D29C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC0F54E-C516-4ABA-9AAD-4356E06FF3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34965" yWindow="4560" windowWidth="17280" windowHeight="8880" xr2:uid="{71C36AC8-5852-4A3F-B739-0B1D9D7D1650}"/>
+    <workbookView xWindow="-2016" yWindow="432" windowWidth="17280" windowHeight="8880" xr2:uid="{71C36AC8-5852-4A3F-B739-0B1D9D7D1650}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C62F60-204B-43E7-A62C-9354A3AA018D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,14 +434,26 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45737</v>
+        <v>45748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
